--- a/doc/前后端url接口设计.xlsx
+++ b/doc/前后端url接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="导航栏" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
   <si>
     <t>url</t>
   </si>
@@ -498,12 +498,6 @@
   </si>
   <si>
     <t>社区id优先级高于制作人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next=1 下一页 or
-prev=1 上一页 or
-page=？跳转到第几页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,9 +640,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -663,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1214,7 +1208,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>404</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1391,7 +1385,7 @@
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1433,154 +1427,154 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.75" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="27.875" style="13"/>
-    <col min="5" max="5" width="40.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="30" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="27.875" style="13"/>
+    <col min="3" max="4" width="27.875" style="12"/>
+    <col min="5" max="5" width="40.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="30" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="27.875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1614,131 +1608,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>123</v>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1755,48 +1749,48 @@
       <c r="C16" s="3"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="13"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="11"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D24" s="13"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="11"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1815,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
@@ -1830,94 +1824,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>125</v>
+      <c r="F3" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C8" s="3"/>
@@ -1964,97 +1958,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2095,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
@@ -2110,97 +2104,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">

--- a/doc/前后端url接口设计.xlsx
+++ b/doc/前后端url接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="导航栏" sheetId="12" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="人员" sheetId="7" r:id="rId5"/>
     <sheet name="社区" sheetId="11" r:id="rId6"/>
     <sheet name="产品" sheetId="8" r:id="rId7"/>
-    <sheet name="工艺" sheetId="9" r:id="rId8"/>
+    <sheet name="--工艺--" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="129">
   <si>
     <t>url</t>
   </si>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>将当前用户pop出session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/transcation/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,10 +349,6 @@
     <t>/user/&lt;int:cid&gt;/delete</t>
   </si>
   <si>
-    <t>/user/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_info{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,21 +406,6 @@
   <si>
     <t>上下翻页</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/product/page</t>
-  </si>
-  <si>
-    <t>/product/add</t>
-  </si>
-  <si>
-    <t>product_info{}</t>
-  </si>
-  <si>
-    <t>/product/modify</t>
-  </si>
-  <si>
-    <t>/product/delete</t>
   </si>
   <si>
     <t>/item/page</t>
@@ -448,15 +425,6 @@
   <si>
     <t>true则刷新一下当前表
 /item/page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true则刷新一下当前表
-/product/page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_id：产品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,6 +479,59 @@
   <si>
     <t>true则刷新一下当前表
 /community/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回该产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true则刷新一下当前表
+/product/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/&lt;int:p_id&gt;/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/&lt;int:p_id&gt;/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/&lt;int:p_id&gt;/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/&lt;int:p_id&gt;/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/&lt;int:p_id&gt;/show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_info{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_info{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/transcation/&lt;int:cid=0&gt;/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:cid=0&gt;/page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +674,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,6 +690,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,9 +1044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>16</v>
@@ -1066,116 +1105,116 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1186,7 +1225,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -1212,19 +1251,19 @@
         <v>404</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1346,7 +1385,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="A1:F3"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1380,37 +1419,37 @@
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1427,7 +1466,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1462,95 +1501,95 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" s="13"/>
@@ -1560,22 +1599,22 @@
     </row>
     <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1634,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1629,111 +1668,111 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1773,24 +1812,24 @@
       <c r="E22" s="7"/>
       <c r="F22" s="13"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D23" s="12"/>
       <c r="E23" s="7"/>
       <c r="F23" s="13"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D24" s="12"/>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1809,9 +1848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1845,73 +1884,73 @@
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>124</v>
+        <v>94</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C8" s="3"/>
@@ -1941,138 +1980,142 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="2"/>
-    <col min="3" max="4" width="27.875" style="1"/>
-    <col min="5" max="5" width="40.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="27.875" style="1"/>
+    <col min="1" max="1" width="28.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="16"/>
+    <col min="3" max="4" width="27.875" style="8"/>
+    <col min="5" max="5" width="40.75" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="27.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="3"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="3"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2125,77 +2168,77 @@
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>

--- a/doc/前后端url接口设计.xlsx
+++ b/doc/前后端url接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="导航栏" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
   <si>
     <t>url</t>
   </si>
@@ -532,6 +532,10 @@
   </si>
   <si>
     <t>/user/&lt;int:cid=0&gt;/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有社区的流水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,6 +686,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -690,18 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1044,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -1466,7 +1473,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,10 +1517,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>68</v>
+        <v>129</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>67</v>
@@ -1533,7 +1540,7 @@
         <v>97</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>66</v>
@@ -1552,10 +1559,10 @@
       <c r="D4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1572,8 +1579,8 @@
       <c r="D5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
@@ -1588,8 +1595,8 @@
       <c r="D6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" s="13"/>
@@ -1632,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
@@ -1719,10 +1726,10 @@
       <c r="D4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1739,8 +1746,8 @@
       <c r="D5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
@@ -1755,8 +1762,8 @@
       <c r="D6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
@@ -1812,24 +1819,24 @@
       <c r="E22" s="7"/>
       <c r="F22" s="13"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D23" s="12"/>
       <c r="E23" s="7"/>
       <c r="F23" s="13"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D24" s="12"/>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1913,10 +1920,10 @@
       <c r="D3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="23" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1933,8 +1940,8 @@
       <c r="D4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
@@ -1949,8 +1956,8 @@
       <c r="D5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C8" s="3"/>
@@ -1997,22 +2004,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2043,13 +2050,13 @@
       <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="23" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -2063,14 +2070,14 @@
       <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2081,12 +2088,12 @@
       <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2103,19 +2110,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="24"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="24"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="24"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="24"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C15" s="24"/>
+      <c r="C15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2199,7 +2206,7 @@
       <c r="D3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -2219,8 +2226,8 @@
       <c r="D4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="24" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2237,8 +2244,8 @@
       <c r="D5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>

--- a/doc/前后端url接口设计.xlsx
+++ b/doc/前后端url接口设计.xlsx
@@ -16,12 +16,12 @@
     <sheet name="产品" sheetId="8" r:id="rId7"/>
     <sheet name="--工艺--" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>url</t>
   </si>
@@ -536,6 +536,10 @@
   </si>
   <si>
     <t>返回所有社区的流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1641,7 +1645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1780,6 +1784,9 @@
       </c>
       <c r="E9" s="12" t="s">
         <v>87</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">

--- a/doc/前后端url接口设计.xlsx
+++ b/doc/前后端url接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="导航栏" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
   <si>
     <t>url</t>
   </si>
@@ -94,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username:用户名称 passwd:密码 next:登录成功后跳转的下一个url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json {role:root/admin/user之一}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,18 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将当前用户pop出session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回404页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,18 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳转到首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,30 +159,6 @@
   </si>
   <si>
     <t>跳转到工艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>render_template('transaction.html', role)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>render_template('users.html', role)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>render_template('community.html', role)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>render_template('product.html', role)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>render_template('item.html', role)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重定向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,18 +204,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回10栏流水信息：json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/index/salary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>render_template('index.html', role)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,14 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回10栏流水信息：json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/transaction/&lt;int:c	id&gt;/page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,11 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>true则刷新一下当前流水表
-/transaction/&lt;int:c id&gt;/page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/transaction/&lt;int:cid&gt;/delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,10 +262,6 @@
     <t>/user/&lt;int:cid&gt;/add</t>
   </si>
   <si>
-    <t>true则刷新一下当前流水表
-/user/&lt;int:c id&gt;/page</t>
-  </si>
-  <si>
     <t>/user/&lt;int:cid&gt;/modify</t>
   </si>
   <si>
@@ -358,10 +277,6 @@
   </si>
   <si>
     <t>uuid: 用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_info{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,37 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/transaction/filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time 月份 str形如"201704"
-c_id 社区id
-u_id 制作人id
-p_id 产品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区id优先级高于制作人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_id 社区id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true则刷新一下当前表
 /community/page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,11 +419,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回所有社区的流水</t>
+    <t>/test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端交互的测试接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/show_flask_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回网站运行后台日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt 直接下载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/show_operator_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回用户操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('login.html', error=error_msg, next=next_url)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('item.html')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('product.html')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('community.html')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('transaction.html')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('users.html')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('index.html')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定向到首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username:用户名称 
+passwd:密码 
+next:登录后跳转的下一个url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect(next_url)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前用户登录状态清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json｛所有社区流水信息(格式待定)｝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json｛该社区流水信息(格式待定)｝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{transaction_info{待定}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有社区的流水信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Success", "" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Fail", "error_msg"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success则刷新一下当前流水表
+/transaction/&lt;int:cid&gt;/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true则刷新一下当前用户表
+/user/&lt;int:cid&gt;/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{所有社区用户信息}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{该社区用户信息}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{所有社区信息}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{所有产品信息}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回该员工流水信息：json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页要显示的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回要显示的个人信息:json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +672,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -635,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,12 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +811,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,8 +825,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,231 +1216,293 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="6"/>
-    <col min="4" max="4" width="14.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="27.875" style="6"/>
+    <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="4"/>
+    <col min="4" max="4" width="14.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="27.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>404</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
-        <v>404</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="10"/>
+      <c r="A14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="10"/>
+      <c r="A16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1296,92 +1517,92 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="27.875" style="6"/>
-    <col min="5" max="5" width="40.75" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="27.875" style="6"/>
+    <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="27.875" style="4"/>
+    <col min="5" max="5" width="40.75" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="27.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
+      <c r="F3" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="10"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1392,11 +1613,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,60 +1630,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>21</v>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="C2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1473,7 +1711,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1482,151 +1720,131 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="27.875" style="12"/>
-    <col min="5" max="5" width="40.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="30" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="27.875" style="12"/>
+    <col min="1" max="1" width="29.75" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="27.875" style="10"/>
+    <col min="5" max="5" width="40.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="27.875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>67</v>
+      <c r="D2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>66</v>
+      <c r="C3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>72</v>
+      <c r="C4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>95</v>
+      <c r="C5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="C8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1641,214 +1859,195 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="2"/>
-    <col min="3" max="4" width="27.875" style="1"/>
+    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="27.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
+      <c r="F1" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>67</v>
+      <c r="D2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>66</v>
+      <c r="C3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>72</v>
+      <c r="C4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="22"/>
+      <c r="C5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="22"/>
+      <c r="C6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="3"/>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D20" s="12"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D21" s="12"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D22" s="12"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="12"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D24" s="12"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
   </mergeCells>
@@ -1864,7 +2063,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1877,91 +2076,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>95</v>
+      <c r="C4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>96</v>
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
@@ -1998,138 +2197,138 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="16"/>
-    <col min="3" max="4" width="27.875" style="8"/>
-    <col min="5" max="5" width="40.75" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="27.875" style="8"/>
+    <col min="1" max="1" width="28.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="14"/>
+    <col min="3" max="4" width="27.875" style="6"/>
+    <col min="5" max="5" width="40.75" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="27.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>21</v>
+      <c r="F1" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="D3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>118</v>
+      <c r="B6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="21"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="21"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="21"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="21"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C15" s="21"/>
+      <c r="C15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2144,143 +2343,242 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="2"/>
-    <col min="3" max="4" width="27.875" style="1"/>
-    <col min="5" max="5" width="40.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="27.875" style="1"/>
+    <col min="1" max="1" width="28.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="28"/>
+    <col min="3" max="4" width="27.875" style="32"/>
+    <col min="5" max="5" width="40.75" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="27.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
+      <c r="F1" s="26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>105</v>
+      <c r="C2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>106</v>
+      <c r="C3" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="24" t="s">
-        <v>103</v>
+      <c r="C4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="25"/>
+      <c r="C5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="3"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="3"/>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="3"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="3"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="3"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A11:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
